--- a/biology/Histoire de la zoologie et de la botanique/Józef_Razowski/Józef_Razowski.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Józef_Razowski/Józef_Razowski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%C3%B3zef_Razowski</t>
+          <t>Józef_Razowski</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Józef Razowski, né le 20 avril 1932[1] est un entomologiste et lépidoptériste polonais spécialisé dans les Tortricidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Józef Razowski, né le 20 avril 1932 est un entomologiste et lépidoptériste polonais spécialisé dans les Tortricidae.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J%C3%B3zef_Razowski</t>
+          <t>Józef_Razowski</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a obtenu une maîtrise ès sciences et un doctorat de l'Université Jagellonne, respectivement en 1958 et 1961[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a obtenu une maîtrise ès sciences et un doctorat de l'Université Jagellonne, respectivement en 1958 et 1961.
 Razowski a été directeur de l'Institut de Systématique et d'Évolution des Animaux de l'Académie Polonaise des Sciences de 1988 à 1997. Il a pris sa retraite en 2003.
 Il est le récipiendaire de plusieurs prix et récompenses, dont le Prix de l'État polonais et la médaille Ignaz Schiffermüller.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>J%C3%B3zef_Razowski</t>
+          <t>Józef_Razowski</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications sélectionnées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>World fauna of the Tortricini: '(Lepidoptera, Tortricidae)', Krakau 1966
 The type specimens of the species of some Tortricidae (Lepidoptera), Krakau 1971
